--- a/Documentation/Working_Documents/Device_Name_BOM.xlsx
+++ b/Documentation/Working_Documents/Device_Name_BOM.xlsx
@@ -1028,8 +1028,8 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001DC44D19606E8540AF995795CBBBCE63" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e7289f370a5204a7f65a57e64255ba54">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e718a8af-5d48-45b1-a7fb-cef00c107a7a" xmlns:ns3="715913e6-4bf0-458f-8160-f18e142d04ff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dfa4d2400c415f2e6245c833fda60061" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001DC44D19606E8540AF995795CBBBCE63" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="72518c49cc9021390dbba2958e7a3f0c">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e718a8af-5d48-45b1-a7fb-cef00c107a7a" xmlns:ns3="715913e6-4bf0-458f-8160-f18e142d04ff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="175092e7cad6d6b91dac7c2ca96d6cf8" ns2:_="" ns3:_="">
     <xsd:import namespace="e718a8af-5d48-45b1-a7fb-cef00c107a7a"/>
     <xsd:import namespace="715913e6-4bf0-458f-8160-f18e142d04ff"/>
     <xsd:element name="properties">
@@ -1051,6 +1051,7 @@
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1125,6 +1126,11 @@
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="21" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="22" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -1251,5 +1257,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A20C086-9FA0-4D88-9A77-4B621EE8056E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FD58F07-30E0-465A-9CA7-501C97F78C37}"/>
 </file>